--- a/biology/Botanique/Inocutis_tamaricis/Inocutis_tamaricis.xlsx
+++ b/biology/Botanique/Inocutis_tamaricis/Inocutis_tamaricis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Inocutis tamaricis est une espèce de champignons de la famille des Hymenochaetaceae. C'est un parasite des Tamaris.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe du Sud, Afrique du Nord, Syrie, Sénégal, Asie du Sud, Est de la Chine.
 </t>
@@ -542,11 +556,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Inocutis tamaricis (Pat.) Fiasson &amp; Niemelä, 1984[1].
-L'espèce a été initialement classée dans le genre Xanthochrous sous le basionyme Xanthochrous tamaricis Pat., 1904[1].
-Inocutis tamaricis a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Inocutis tamaricis (Pat.) Fiasson &amp; Niemelä, 1984.
+L'espèce a été initialement classée dans le genre Xanthochrous sous le basionyme Xanthochrous tamaricis Pat., 1904.
+Inocutis tamaricis a pour synonymes :
 Inonotus tamaricis (Pat.) Maire, 1938
 Polyporus tamaricis (Pat.) Sacc. &amp; D. Sacc., 1905
 Xanthochrous rheades subsp. tamaricis (Pat.) Bourdot &amp; Galzin, 1925
